--- a/oci_tenancy/CoreInfra/Compute/example/CD3-template.xlsx
+++ b/oci_tenancy/CoreInfra/Compute/example/CD3-template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="VCNs" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="98">
   <si>
     <t>Regional</t>
   </si>
@@ -376,7 +376,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -436,11 +436,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -471,6 +480,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1132,7 +1144,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1314,218 +1326,240 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="E4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14"/>
-      <c r="B6" s="12" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="1"/>
+      <c r="E6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1" t="s">
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="11" t="s">
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1" t="s">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="11" t="s">
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="11" t="s">
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="11" t="s">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
-      <c r="B13" s="12"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="11" t="s">
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1" t="s">
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1" t="s">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="11" t="s">
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1" t="s">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="B2:B17"/>
     <mergeCell ref="A2:A17"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" display="https://console.us-ashburn-1.oraclecloud.com/a/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaa77lkexyrq5t4gpuirhdetct5psrmbouinhad2s5soycj4jyimlwq/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaavfzlvfl6ndwskbl5nn2k6kz55kgjrad6x6vniyjopngwgc627vbq"/>
-    <hyperlink ref="D10" r:id="rId2" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="D11" r:id="rId3" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="D12" r:id="rId4" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
-    <hyperlink ref="D13" r:id="rId5" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="D3" r:id="rId1" display="https://console.us-ashburn-1.oraclecloud.com/a/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaa77lkexyrq5t4gpuirhdetct5psrmbouinhad2s5soycj4jyimlwq/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaavfzlvfl6ndwskbl5nn2k6kz55kgjrad6x6vniyjopngwgc627vbq"/>
+    <hyperlink ref="E10" r:id="rId2" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="E11" r:id="rId3" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="E12" r:id="rId4" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
+    <hyperlink ref="E13" r:id="rId5" display="https://console.us-ashburn-1.oraclecloud.com/identity/tag-namespaces/ocid1.tagnamespace.oc1..aaaaaaaadzgtve7ubdqntcnzs5etayvagxt35lgjiroopapcjuppphlgka6a/tag-definitions/ocid1.tagdefinition.oc1..aaaaaaaalrrujpcabyq3c4lq6h3dc2fbs42w23t5pigyv5dep3w236eadraa"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
